--- a/results/run_metrics.xlsx
+++ b/results/run_metrics.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -29,7 +31,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,12 +42,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090EE90"/>
-        <bgColor rgb="0090EE90"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,13 +63,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -439,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +452,7 @@
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="21" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -498,21 +496,26 @@
           <t>Least Loss</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R2AttU_Net_lfcc-delta_32_len5S</t>
+          <t>U_Net_MFCC_32_len5S</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R2AttU_Net</t>
+          <t>U_Net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lfcc-delta</t>
+          <t>MFCC</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -522,19 +525,22 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>39442992</v>
+        <v>34526084</v>
       </c>
       <c r="G2" t="n">
-        <v>69.56521606445312</v>
+        <v>86.95652008056641</v>
       </c>
       <c r="H2" t="n">
-        <v>0.557578980922699</v>
+        <v>0.9281513690948486</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>45537.81685185185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>U_Net_delta_32_len30S</t>
+          <t>U_Net_MFCC_32_len30S</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -544,7 +550,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>delta</t>
+          <t>MFCC</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -557,16 +563,19 @@
         <v>34526084</v>
       </c>
       <c r="G3" t="n">
-        <v>93.47826385498047</v>
+        <v>89.13043212890625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.885614812374115</v>
+        <v>0.8510035872459412</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>45537.81773148148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>U_Net_LFCC_80_len5S</t>
+          <t>U_Net_delta_32_len5S</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -576,11 +585,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LFCC</t>
+          <t>delta</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -589,16 +598,19 @@
         <v>34526084</v>
       </c>
       <c r="G4" t="n">
-        <v>91.30434417724609</v>
+        <v>71.73912811279297</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8510100841522217</v>
+        <v>1.076469659805298</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>45537.81940972222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>U_Net_LFCC_32_len5S</t>
+          <t>U_Net_MFCC_80_len5S</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,11 +620,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LFCC</t>
+          <t>MFCC</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -620,17 +632,20 @@
       <c r="F5" t="n">
         <v>34526084</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>95.65217590332031</v>
+      <c r="G5" t="n">
+        <v>78.26087188720703</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8168511986732483</v>
+        <v>0.9191123247146606</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>45537.81965277778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AttentionUNet_lfcc-delta-delta_32_len5S</t>
+          <t>AttentionUNet_MFCC_32_len5S</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -640,7 +655,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>lfcc-delta-delta</t>
+          <t>MFCC</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -653,21 +668,24 @@
         <v>34877486</v>
       </c>
       <c r="G6" t="n">
-        <v>76.08695983886719</v>
+        <v>67.39130401611328</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5528329610824585</v>
+        <v>0.5642368793487549</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>45537.82024305555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AttentionUNet_MFCC_32_len5S</t>
+          <t>R2AttU_Net_MFCC_32_len5S</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AttentionUNet</t>
+          <t>R2AttU_Net</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -682,24 +700,27 @@
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>34877486</v>
+        <v>39442992</v>
       </c>
       <c r="G7" t="n">
-        <v>67.39130401611328</v>
+        <v>76.08695983886719</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5642368793487549</v>
+        <v>0.5616060495376587</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>45537.82064814815</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>U_Net_MFCC_32_len5S</t>
+          <t>R2U_Net_MFCC_32_len5S</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>U_Net</t>
+          <t>R2U_Net</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -714,29 +735,32 @@
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>34526084</v>
+        <v>39091460</v>
       </c>
       <c r="G8" t="n">
-        <v>86.95652008056641</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9281513690948486</v>
+        <v>0.6707836985588074</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>45537.82099537037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AttentionUNet_delta_32_len5S</t>
+          <t>U_Net_delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AttentionUNet</t>
+          <t>U_Net</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>delta</t>
+          <t>delta-delta</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -746,61 +770,67 @@
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>34877486</v>
+        <v>34526084</v>
       </c>
       <c r="G9" t="n">
-        <v>82.60869598388672</v>
+        <v>63.04347991943359</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5391703248023987</v>
+        <v>1.100150108337402</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>45537.82172453704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R2U_Net_LFCC_32_len5S</t>
+          <t>U_Net_delta_80_len5S</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R2U_Net</t>
+          <t>U_Net</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LFCC</t>
+          <t>delta</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>39091460</v>
+        <v>34526084</v>
       </c>
       <c r="G10" t="n">
-        <v>73.91304016113281</v>
+        <v>63.04347991943359</v>
       </c>
       <c r="H10" t="n">
-        <v>0.642855703830719</v>
+        <v>1.033747315406799</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>45537.82280092593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta-delta_32_len5S</t>
+          <t>AttentionUNet_delta_32_len5S</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>U_Net</t>
+          <t>AttentionUNet</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>lfcc-delta-delta</t>
+          <t>delta</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -810,24 +840,27 @@
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>34526084</v>
+        <v>34877486</v>
       </c>
       <c r="G11" t="n">
-        <v>78.26087188720703</v>
+        <v>82.60869598388672</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9822227358818054</v>
+        <v>0.5391703248023987</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>45537.82309027778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R2U_Net_delta_32_len5S</t>
+          <t>R2AttU_Net_delta_32_len5S</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R2U_Net</t>
+          <t>R2AttU_Net</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -842,29 +875,32 @@
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>39091460</v>
+        <v>39442992</v>
       </c>
       <c r="G12" t="n">
-        <v>73.91304016113281</v>
+        <v>69.56521606445312</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5048011541366577</v>
+        <v>0.5860708951950073</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>45537.82357638889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R2AttU_Net_MFCC_32_len5S</t>
+          <t>R2U_Net_delta_32_len5S</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R2AttU_Net</t>
+          <t>R2U_Net</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MFCC</t>
+          <t>delta</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -874,19 +910,22 @@
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>39442992</v>
+        <v>39091460</v>
       </c>
       <c r="G13" t="n">
-        <v>76.08695983886719</v>
+        <v>73.91304016113281</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5616060495376587</v>
+        <v>0.5048011541366577</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>45537.82395833333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>U_Net_delta_32_len5S</t>
+          <t>U_Net_LFCC_32_len5S</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -896,7 +935,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>delta</t>
+          <t>LFCC</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -908,81 +947,90 @@
       <c r="F14" t="n">
         <v>34526084</v>
       </c>
-      <c r="G14" t="n">
-        <v>71.73912811279297</v>
+      <c r="G14" s="4" t="n">
+        <v>95.65217590332031</v>
       </c>
       <c r="H14" t="n">
-        <v>1.076469659805298</v>
+        <v>0.8168511986732483</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>45537.82413194444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R2AttU_Net_delta_32_len5S</t>
+          <t>U_Net_delta-delta_80_len5S</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R2AttU_Net</t>
+          <t>U_Net</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>delta</t>
+          <t>delta-delta</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>39442992</v>
+        <v>34526084</v>
       </c>
       <c r="G15" t="n">
-        <v>69.56521606445312</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5860708951950073</v>
+        <v>1.081704616546631</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>45537.82615740741</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>U_Net_delta_80_len5S</t>
+          <t>AttentionUNet_delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>U_Net</t>
+          <t>AttentionUNet</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>delta</t>
+          <t>delta-delta</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>34526084</v>
+        <v>34877486</v>
       </c>
       <c r="G16" t="n">
-        <v>63.04347991943359</v>
+        <v>60.86956405639648</v>
       </c>
       <c r="H16" t="n">
-        <v>1.033747315406799</v>
+        <v>0.5899332761764526</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>45537.82615740741</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>U_Net_MFCC_32_len30S</t>
+          <t>U_Net_lfcc-delta_32_len5S</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -992,71 +1040,77 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MFCC</t>
+          <t>lfcc-delta</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>32</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>34526084</v>
       </c>
       <c r="G17" t="n">
-        <v>89.13043212890625</v>
+        <v>67.39130401611328</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8510035872459412</v>
+        <v>1.047885298728943</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>45537.82637731481</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>U_Net_MFCC_32_len30S</t>
+          <t>R2AttU_Net_delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>U_Net</t>
+          <t>R2AttU_Net</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MFCC</t>
+          <t>delta-delta</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>32</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>34526084</v>
+        <v>39442992</v>
       </c>
       <c r="G18" t="n">
-        <v>86.95652008056641</v>
+        <v>58.69565200805664</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8733596205711365</v>
+        <v>0.6654889583587646</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>45537.82677083334</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AttentionUNet_LFCC_32_len5S</t>
+          <t>R2U_Net_delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AttentionUNet</t>
+          <t>R2U_Net</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LFCC</t>
+          <t>delta-delta</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1066,24 +1120,27 @@
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>34877486</v>
+        <v>39091460</v>
       </c>
       <c r="G19" t="n">
-        <v>82.60869598388672</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>0.4653773307800293</v>
+        <v>73.91304016113281</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6217888593673706</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>45537.82715277778</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R2AttU_Net_lfcc-delta-delta_32_len5S</t>
+          <t>U_Net_lfcc-delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R2AttU_Net</t>
+          <t>U_Net</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1098,157 +1155,172 @@
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>39442992</v>
+        <v>34526084</v>
       </c>
       <c r="G20" t="n">
-        <v>54.34782791137695</v>
+        <v>78.26087188720703</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6629348993301392</v>
+        <v>0.9822227358818054</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>45537.82863425926</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta-delta_80_len5S</t>
+          <t>AttentionUNet_LFCC_32_len5S</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>U_Net</t>
+          <t>AttentionUNet</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>lfcc-delta-delta</t>
+          <t>LFCC</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>34526084</v>
+        <v>34877486</v>
       </c>
       <c r="G21" t="n">
-        <v>89.13043212890625</v>
+        <v>82.60869598388672</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9213963150978088</v>
+        <v>0.4653773307800293</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>45537.82925925926</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R2U_Net_MFCC_32_len5S</t>
+          <t>U_Net_LFCC_80_len5S</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R2U_Net</t>
+          <t>U_Net</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MFCC</t>
+          <t>LFCC</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>39091460</v>
+        <v>34526084</v>
       </c>
       <c r="G22" t="n">
-        <v>50</v>
+        <v>91.30434417724609</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6707836985588074</v>
+        <v>0.8510100841522217</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>45537.82957175926</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>U_Net_delta-delta_32_len30S</t>
+          <t>R2AttU_Net_LFCC_32_len5S</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>U_Net</t>
+          <t>R2AttU_Net</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>delta-delta</t>
+          <t>LFCC</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>32</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>34526084</v>
+        <v>39442992</v>
       </c>
       <c r="G23" t="n">
-        <v>78.26087188720703</v>
+        <v>73.91304016113281</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9564621448516846</v>
+        <v>0.5335369110107422</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>45537.82994212963</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta-delta_32_len30S</t>
+          <t>R2U_Net_LFCC_32_len5S</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>U_Net</t>
+          <t>R2U_Net</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>lfcc-delta-delta</t>
+          <t>LFCC</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>34526084</v>
+        <v>39091460</v>
       </c>
       <c r="G24" t="n">
-        <v>63.04347991943359</v>
+        <v>73.91304016113281</v>
       </c>
       <c r="H24" t="n">
-        <v>1.059326410293579</v>
+        <v>0.642855703830719</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>45537.83028935185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>U_Net_delta-delta_32_len5S</t>
+          <t>AttentionUNet_lfcc-delta_32_len5S</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>U_Net</t>
+          <t>AttentionUNet</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>delta-delta</t>
+          <t>lfcc-delta</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1258,19 +1330,22 @@
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>34526084</v>
+        <v>34877486</v>
       </c>
       <c r="G25" t="n">
-        <v>63.04347991943359</v>
+        <v>78.26087188720703</v>
       </c>
       <c r="H25" t="n">
-        <v>1.100150108337402</v>
+        <v>0.5578004121780396</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>45537.83203703703</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta_32_len30S</t>
+          <t>U_Net_lfcc-delta_80_len5S</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1284,51 +1359,57 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>34526084</v>
       </c>
       <c r="G26" t="n">
-        <v>84.78260803222656</v>
+        <v>93.47826385498047</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9093547463417053</v>
+        <v>0.8924888968467712</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>45537.83253472222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>U_Net_LFCC_32_len30S</t>
+          <t>R2AttU_Net_lfcc-delta_32_len5S</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>U_Net</t>
+          <t>R2AttU_Net</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LFCC</t>
+          <t>lfcc-delta</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>32</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>34526084</v>
+        <v>39442992</v>
       </c>
       <c r="G27" t="n">
-        <v>86.95652008056641</v>
+        <v>69.56521606445312</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8723922967910767</v>
+        <v>0.557578980922699</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>45537.83282407407</v>
       </c>
     </row>
     <row r="28">
@@ -1362,21 +1443,24 @@
       <c r="H28" t="n">
         <v>0.5619004964828491</v>
       </c>
+      <c r="I28" s="3" t="n">
+        <v>45537.83311342593</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R2AttU_Net_delta-delta_32_len5S</t>
+          <t>AttentionUNet_lfcc-delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R2AttU_Net</t>
+          <t>AttentionUNet</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>delta-delta</t>
+          <t>lfcc-delta-delta</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1386,24 +1470,27 @@
         <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>39442992</v>
+        <v>34877486</v>
       </c>
       <c r="G29" t="n">
-        <v>58.69565200805664</v>
+        <v>76.08695983886719</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6654889583587646</v>
+        <v>0.5528329610824585</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>45537.83510416667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R2U_Net_lfcc-delta-delta_32_len5S</t>
+          <t>U_Net_lfcc-delta-delta_80_len5S</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R2U_Net</t>
+          <t>U_Net</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1412,25 +1499,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>39091460</v>
+        <v>34526084</v>
       </c>
       <c r="G30" t="n">
-        <v>67.39130401611328</v>
+        <v>89.13043212890625</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5734604597091675</v>
+        <v>0.9213963150978088</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>45537.83583333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R2AttU_Net_LFCC_32_len5S</t>
+          <t>R2AttU_Net_lfcc-delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1440,7 +1530,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LFCC</t>
+          <t>lfcc-delta-delta</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1453,26 +1543,29 @@
         <v>39442992</v>
       </c>
       <c r="G31" t="n">
-        <v>73.91304016113281</v>
+        <v>54.34782791137695</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5335369110107422</v>
+        <v>0.6629348993301392</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>45537.83599537037</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AttentionUNet_lfcc-delta_32_len5S</t>
+          <t>R2U_Net_lfcc-delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AttentionUNet</t>
+          <t>R2U_Net</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>lfcc-delta</t>
+          <t>lfcc-delta-delta</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1482,19 +1575,22 @@
         <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>34877486</v>
+        <v>39091460</v>
       </c>
       <c r="G32" t="n">
-        <v>78.26087188720703</v>
+        <v>67.39130401611328</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5578004121780396</v>
+        <v>0.5734604597091675</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>45537.83621527778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta_80_len5S</t>
+          <t>U_Net_MFCC_32_len30S</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1504,61 +1600,67 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>lfcc-delta</t>
+          <t>MFCC</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F33" t="n">
         <v>34526084</v>
       </c>
       <c r="G33" t="n">
-        <v>93.47826385498047</v>
+        <v>86.95652008056641</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8924888968467712</v>
+        <v>0.8733596205711365</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>45545.65638888889</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R2U_Net_delta-delta_32_len5S</t>
+          <t>U_Net_delta_32_len30S</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R2U_Net</t>
+          <t>U_Net</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>delta-delta</t>
+          <t>delta</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>32</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F34" t="n">
-        <v>39091460</v>
+        <v>34526084</v>
       </c>
       <c r="G34" t="n">
-        <v>73.91304016113281</v>
+        <v>93.47826385498047</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6217888593673706</v>
+        <v>0.885614812374115</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>45545.6596875</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>U_Net_delta-delta_80_len5S</t>
+          <t>U_Net_delta-delta_32_len30S</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1572,57 +1674,63 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F35" t="n">
         <v>34526084</v>
       </c>
       <c r="G35" t="n">
-        <v>50</v>
+        <v>78.26087188720703</v>
       </c>
       <c r="H35" t="n">
-        <v>1.081704616546631</v>
+        <v>0.9564621448516846</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>45545.66295138889</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AttentionUNet_delta-delta_32_len5S</t>
+          <t>U_Net_LFCC_32_len30S</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AttentionUNet</t>
+          <t>U_Net</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>delta-delta</t>
+          <t>LFCC</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>32</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n">
-        <v>34877486</v>
+        <v>34526084</v>
       </c>
       <c r="G36" t="n">
-        <v>60.86956405639648</v>
+        <v>86.95652008056641</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5899332761764526</v>
+        <v>0.8723922967910767</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>45545.66627314815</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>U_Net_MFCC_80_len5S</t>
+          <t>U_Net_lfcc-delta_32_len30S</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1632,55 +1740,3491 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MFCC</t>
+          <t>lfcc-delta</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F37" t="n">
         <v>34526084</v>
       </c>
       <c r="G37" t="n">
-        <v>78.26087188720703</v>
+        <v>84.78260803222656</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9191123247146606</v>
+        <v>0.9093547463417053</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>45545.66940972222</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>U_Net_lfcc-delta-delta_32_len30S</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>32</v>
+      </c>
+      <c r="E38" t="n">
+        <v>30</v>
+      </c>
+      <c r="F38" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G38" t="n">
+        <v>63.04347991943359</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.059326410293579</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>45545.67266203704</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>32</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G39" t="n">
+        <v>50</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.192856788635254</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>45547.43761574074</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>32</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G40" t="n">
+        <v>50</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.117280721664429</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>45547.54770833333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>32</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G41" t="n">
+        <v>73.91304016113281</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.130149960517883</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>45547.54990740741</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>32</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G42" t="n">
+        <v>60.86956405639648</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.146446704864502</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>45547.55186342593</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>32</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G43" t="n">
+        <v>80.43478393554688</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9560877084732056</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>45547.55398148148</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>U_Net_lfcc-delta_32_len5S</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>U_Net</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>lfcc-delta</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>32</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D44" t="n">
+        <v>32</v>
+      </c>
+      <c r="E44" t="n">
         <v>5</v>
       </c>
-      <c r="F38" t="n">
-        <v>34526084</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="F44" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G44" t="n">
+        <v>93.47826385498047</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8485460877418518</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>45547.55576388889</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>32</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G45" t="n">
+        <v>56.5217399597168</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.140173196792603</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>45547.55767361111</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len10S</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>32</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G46" t="n">
+        <v>60.86956405639648</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.139585494995117</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>45573.67932870371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len10S</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>32</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G47" t="n">
+        <v>76.08695983886719</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.957511305809021</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>45573.68146990741</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len10S</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>32</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G48" t="n">
+        <v>52.17391204833984</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.188423871994019</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>45573.68293981482</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len10S</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>32</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G49" t="n">
+        <v>78.26087188720703</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9854945540428162</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>45573.6841087963</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len10S</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>32</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G50" t="n">
+        <v>89.13043212890625</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.8628938794136047</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>45573.68439814815</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len10S</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>32</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G51" t="n">
+        <v>52.17391204833984</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.208693981170654</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>45573.68579861111</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len10S</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>32</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G52" t="n">
+        <v>52.17391204833984</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.163326621055603</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>45573.68589120371</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len10S</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>32</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G53" t="n">
+        <v>56.5217399597168</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.126987338066101</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>45573.68729166667</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len10S</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>32</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G54" t="n">
+        <v>65.21739196777344</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.10048496723175</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>45573.68775462963</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len3S</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>32</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G55" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.094250082969666</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>45573.68930555556</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len10S</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>32</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G56" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.12107253074646</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>45573.68974537037</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len3S</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>32</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G57" t="n">
         <v>67.39130401611328</v>
       </c>
-      <c r="H38" t="n">
-        <v>1.047885298728943</v>
+      <c r="H57" t="n">
+        <v>1.156663537025452</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>45573.69074074074</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len10S</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>32</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G58" t="n">
+        <v>65.21739196777344</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.098713874816895</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>45573.6916550926</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len3S</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>32</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G59" t="n">
+        <v>52.17391204833984</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.189852714538574</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>45573.69232638889</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len10S</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>32</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G60" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.06581723690033</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>45573.69368055555</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len3S</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>32</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G61" t="n">
+        <v>67.39130401611328</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.176588416099548</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>45573.69400462963</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len3S</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>32</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G62" t="n">
+        <v>67.39130401611328</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.038368940353394</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>45573.69540509259</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len2S</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>32</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G63" t="n">
+        <v>56.5217399597168</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.163835048675537</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>45573.69628472222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len3S</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>32</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G64" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.033607125282288</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>45573.69694444445</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len1S</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>32</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G65" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.03645133972168</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>45573.69731481482</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len2S</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>32</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G66" t="n">
+        <v>63.04347991943359</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.134661078453064</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>45573.69829861111</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len1S</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>32</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G67" t="n">
+        <v>76.08695983886719</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.019342303276062</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>45573.69931712963</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len2S</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>32</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G68" t="n">
+        <v>52.17391204833984</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.201857805252075</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>45573.70065972222</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len1S</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>32</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G69" t="n">
+        <v>60.86956405639648</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.118978023529053</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>45573.7016087963</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len2S</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>32</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G70" t="n">
+        <v>89.13043212890625</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.8917537927627563</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>45573.70344907408</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len1S</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>32</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G71" t="n">
+        <v>76.08695983886719</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.028132319450378</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>45573.70403935185</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len2S</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>32</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G72" t="n">
+        <v>76.08695983886719</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.033700585365295</v>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>45573.70575231482</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len1S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>32</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G73" t="n">
+        <v>56.5217399597168</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.151769518852234</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>45573.70591435185</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len1S</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>32</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G74" t="n">
+        <v>58.69565200805664</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.144698143005371</v>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>45573.70793981481</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len2S</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>32</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G75" t="n">
+        <v>65.21739196777344</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.086454629898071</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>45573.70826388889</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len15S</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>32</v>
+      </c>
+      <c r="E76" t="n">
+        <v>15</v>
+      </c>
+      <c r="F76" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G76" t="n">
+        <v>82.60869598388672</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9064240455627441</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>45573.75741898148</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>32</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G77" t="n">
+        <v>80.43478393554688</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.9934905767440796</v>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>45573.75878472222</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>32</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G78" t="n">
+        <v>82.60869598388672</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9781070351600647</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>45573.76158564815</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>32</v>
+      </c>
+      <c r="E79" t="n">
+        <v>15</v>
+      </c>
+      <c r="F79" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G79" t="n">
+        <v>89.13043212890625</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.8505039215087891</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>45573.76447916667</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>32</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G80" t="n">
+        <v>58.69565200805664</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.142030954360962</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>45573.76474537037</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>32</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15</v>
+      </c>
+      <c r="F81" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G81" t="n">
+        <v>60.86956405639648</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.015992999076843</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>45573.76603009259</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>32</v>
+      </c>
+      <c r="E82" t="n">
+        <v>15</v>
+      </c>
+      <c r="F82" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G82" t="n">
+        <v>78.26087188720703</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.9739688634872437</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>45573.76763888889</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>32</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G83" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.061704754829407</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>45573.76828703703</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>32</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15</v>
+      </c>
+      <c r="F84" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G84" t="n">
+        <v>82.60869598388672</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.9386202692985535</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>45573.7692824074</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>32</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15</v>
+      </c>
+      <c r="F85" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G85" t="n">
+        <v>86.95652008056641</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.8878193497657776</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>45573.77082175926</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>32</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G86" t="n">
+        <v>80.43478393554688</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.9942023158073425</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>45573.77084490741</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>32</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15</v>
+      </c>
+      <c r="F87" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G87" t="n">
+        <v>76.08695983886719</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.9501516222953796</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>45573.77244212963</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>32</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G88" t="n">
+        <v>69.56521606445312</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.049582719802856</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>45573.7737037037</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len5.0S</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>32</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G89" t="n">
+        <v>67.39130401611328</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.6073596477508545</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>45592.51693287037</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len5.0S</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>32</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G90" t="n">
+        <v>69.56521606445312</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.6437436938285828</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>45592.5228587963</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len5.0S</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>32</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G91" t="n">
+        <v>65.21739196777344</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.6618725061416626</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>45592.52837962963</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len5.0S</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>32</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G92" t="n">
+        <v>89.13043212890625</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.48020339012146</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>45592.53479166667</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len5.0S</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>32</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G93" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.5861878395080566</v>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>45592.54181712963</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len5.0S</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>32</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G94" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.5582168102264404</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>45592.54836805556</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_80_len5.0S</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>80</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G95" t="n">
+        <v>76.08695983886719</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.5459227561950684</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>45592.55936342593</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>U_Net_delta_80_len5.0S</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>80</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G96" t="n">
+        <v>69.56521606445312</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.6222369074821472</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>45592.56712962963</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_80_len5.0S</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>80</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G97" t="n">
+        <v>60.86956405639648</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.6285734176635742</v>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>45592.57481481481</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_80_len5.0S</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>80</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G98" t="n">
+        <v>78.26087188720703</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.5781646966934204</v>
+      </c>
+      <c r="I98" s="3" t="n">
+        <v>45592.58123842593</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_80_len5.0S</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>80</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G99" t="n">
+        <v>73.91304016113281</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.5729113221168518</v>
+      </c>
+      <c r="I99" s="3" t="n">
+        <v>45592.58881944444</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_80_len5.0S</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>80</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G100" t="n">
+        <v>67.39130401611328</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.6164624691009521</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>45592.59619212963</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len10.0S</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>32</v>
+      </c>
+      <c r="E101" t="n">
+        <v>10</v>
+      </c>
+      <c r="F101" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G101" t="n">
+        <v>84.78260803222656</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.5206479430198669</v>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>45592.60280092592</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len10.0S</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>32</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10</v>
+      </c>
+      <c r="F102" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G102" t="n">
+        <v>80.43478393554688</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.4919501543045044</v>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>45592.60917824074</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len10.0S</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>32</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10</v>
+      </c>
+      <c r="F103" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G103" t="n">
+        <v>84.78260803222656</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.4822539687156677</v>
+      </c>
+      <c r="I103" s="3" t="n">
+        <v>45592.61681712963</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len10.0S</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>32</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10</v>
+      </c>
+      <c r="F104" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G104" t="n">
+        <v>67.39130401611328</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.5265199542045593</v>
+      </c>
+      <c r="I104" s="3" t="n">
+        <v>45592.62413194445</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len10.0S</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>32</v>
+      </c>
+      <c r="E105" t="n">
+        <v>10</v>
+      </c>
+      <c r="F105" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G105" t="n">
+        <v>69.56521606445312</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.5450242161750793</v>
+      </c>
+      <c r="I105" s="3" t="n">
+        <v>45592.62908564815</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len10.0S</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>32</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10</v>
+      </c>
+      <c r="F106" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G106" t="n">
+        <v>63.04347991943359</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.6144560575485229</v>
+      </c>
+      <c r="I106" s="3" t="n">
+        <v>45592.63760416667</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>32</v>
+      </c>
+      <c r="E107" t="n">
+        <v>15</v>
+      </c>
+      <c r="F107" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G107" t="n">
+        <v>84.78260803222656</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.4378632307052612</v>
+      </c>
+      <c r="I107" s="3" t="n">
+        <v>45592.64689814814</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>32</v>
+      </c>
+      <c r="E108" t="n">
+        <v>15</v>
+      </c>
+      <c r="F108" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G108" t="n">
+        <v>82.60869598388672</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.4902098774909973</v>
+      </c>
+      <c r="I108" s="3" t="n">
+        <v>45592.65511574074</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>32</v>
+      </c>
+      <c r="E109" t="n">
+        <v>15</v>
+      </c>
+      <c r="F109" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G109" t="n">
+        <v>69.56521606445312</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.5628253221511841</v>
+      </c>
+      <c r="I109" s="3" t="n">
+        <v>45592.66332175926</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>32</v>
+      </c>
+      <c r="E110" t="n">
+        <v>15</v>
+      </c>
+      <c r="F110" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G110" t="n">
+        <v>93.47826385498047</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.4253069460391998</v>
+      </c>
+      <c r="I110" s="3" t="n">
+        <v>45592.67240740741</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>32</v>
+      </c>
+      <c r="E111" t="n">
+        <v>15</v>
+      </c>
+      <c r="F111" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G111" t="n">
+        <v>76.08695983886719</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.5020528435707092</v>
+      </c>
+      <c r="I111" s="3" t="n">
+        <v>45592.683125</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len15.0S</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>32</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15</v>
+      </c>
+      <c r="F112" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G112" t="n">
+        <v>58.69565200805664</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.6414147019386292</v>
+      </c>
+      <c r="I112" s="3" t="n">
+        <v>45592.69148148148</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len3.0S</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>32</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G113" t="n">
+        <v>60.86956405639648</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.5909755825996399</v>
+      </c>
+      <c r="I113" s="3" t="n">
+        <v>45592.70017361111</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len3.0S</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>32</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G114" t="n">
+        <v>67.39130401611328</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.6271656155586243</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>45592.71050925926</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len3.0S</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>32</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G115" t="n">
+        <v>65.21739196777344</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.6228668093681335</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>45592.72061342592</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len3.0S</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>32</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G116" t="n">
+        <v>76.08695983886719</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.5564562678337097</v>
+      </c>
+      <c r="I116" s="3" t="n">
+        <v>45592.72997685185</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len3.0S</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>32</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G117" t="n">
+        <v>76.08695983886719</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.5378384590148926</v>
+      </c>
+      <c r="I117" s="3" t="n">
+        <v>45592.73877314815</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len3.0S</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>32</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G118" t="n">
+        <v>78.26087188720703</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.5581434965133667</v>
+      </c>
+      <c r="I118" s="3" t="n">
+        <v>45592.74778935185</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len2.0S</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>32</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G119" t="n">
+        <v>76.08695983886719</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.5241789817810059</v>
+      </c>
+      <c r="I119" s="3" t="n">
+        <v>45592.75631944444</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len2.0S</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>32</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G120" t="n">
+        <v>73.91304016113281</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.5875753164291382</v>
+      </c>
+      <c r="I120" s="3" t="n">
+        <v>45592.7665625</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len2.0S</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>32</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G121" t="n">
+        <v>60.86956405639648</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.644294798374176</v>
+      </c>
+      <c r="I121" s="3" t="n">
+        <v>45592.775</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len2.0S</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>32</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G122" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.5715482831001282</v>
+      </c>
+      <c r="I122" s="3" t="n">
+        <v>45592.78493055556</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len2.0S</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>32</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G123" t="n">
+        <v>67.39130401611328</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.5758858323097229</v>
+      </c>
+      <c r="I123" s="3" t="n">
+        <v>45592.79361111111</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len2.0S</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>32</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G124" t="n">
+        <v>63.04347991943359</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.6406865119934082</v>
+      </c>
+      <c r="I124" s="3" t="n">
+        <v>45592.80265046296</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len1.0S</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>32</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G125" t="n">
+        <v>63.04347991943359</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.659868061542511</v>
+      </c>
+      <c r="I125" s="3" t="n">
+        <v>45592.81327546296</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len1.0S</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>32</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G126" t="n">
+        <v>60.86956405639648</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.643241822719574</v>
+      </c>
+      <c r="I126" s="3" t="n">
+        <v>45592.82329861111</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len1.0S</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>32</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G127" t="n">
+        <v>56.5217399597168</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.6538770794868469</v>
+      </c>
+      <c r="I127" s="3" t="n">
+        <v>45592.83349537037</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len1.0S</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>32</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G128" t="n">
+        <v>78.26087188720703</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.5723461508750916</v>
+      </c>
+      <c r="I128" s="3" t="n">
+        <v>45592.84449074074</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len1.0S</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>32</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G129" t="n">
+        <v>69.56521606445312</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.594601035118103</v>
+      </c>
+      <c r="I129" s="3" t="n">
+        <v>45592.85407407407</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len1.0S</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>32</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G130" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.6036412715911865</v>
+      </c>
+      <c r="I130" s="3" t="n">
+        <v>45592.86547453704</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>32</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G131" t="n">
+        <v>73.91304016113281</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.594575822353363</v>
+      </c>
+      <c r="I131" s="3" t="n">
+        <v>45592.87521990741</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>U_Net_delta_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>32</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G132" t="n">
+        <v>58.69565200805664</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.644597053527832</v>
+      </c>
+      <c r="I132" s="3" t="n">
+        <v>45592.88590277778</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>U_Net_delta-delta_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>32</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G133" t="n">
+        <v>73.91304016113281</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.5993005633354187</v>
+      </c>
+      <c r="I133" s="3" t="n">
+        <v>45592.89724537037</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>U_Net_LFCC_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>32</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G134" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.5671272873878479</v>
+      </c>
+      <c r="I134" s="3" t="n">
+        <v>45592.9096412037</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>32</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G135" t="n">
+        <v>63.04347991943359</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.5954437851905823</v>
+      </c>
+      <c r="I135" s="3" t="n">
+        <v>45592.91984953704</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta-delta_32_len0.5S</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>32</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G136" t="n">
+        <v>71.73912811279297</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.6175525784492493</v>
+      </c>
+      <c r="I136" s="3" t="n">
+        <v>45592.93172453704</v>
       </c>
     </row>
   </sheetData>
